--- a/Code/Results/Cases/Case_2_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_81/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.15552046518199</v>
+        <v>10.04013707806289</v>
       </c>
       <c r="C2">
-        <v>7.102307144428464</v>
+        <v>4.899733097183971</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.94666475743337</v>
+        <v>22.90544527475214</v>
       </c>
       <c r="F2">
-        <v>35.24678283111646</v>
+        <v>41.17848498620837</v>
       </c>
       <c r="G2">
-        <v>2.091244022872335</v>
+        <v>3.640622344164938</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.62129854423948</v>
+        <v>8.133713967735492</v>
       </c>
       <c r="K2">
-        <v>11.59358269878864</v>
+        <v>9.337930198256901</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.04325791102474</v>
+        <v>18.38961945010614</v>
       </c>
       <c r="O2">
-        <v>14.22196417375164</v>
+        <v>22.49223145042268</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.28302118908605</v>
+        <v>9.763860862809988</v>
       </c>
       <c r="C3">
-        <v>6.751682146509292</v>
+        <v>4.735599477558031</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.49576549823348</v>
+        <v>22.58342008695665</v>
       </c>
       <c r="F3">
-        <v>33.69486768230841</v>
+        <v>40.99659910725056</v>
       </c>
       <c r="G3">
-        <v>2.095830413033695</v>
+        <v>3.64230783541312</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.673178403188891</v>
+        <v>8.156460165211362</v>
       </c>
       <c r="K3">
-        <v>10.90616335266363</v>
+        <v>9.149467944207627</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.23741432557248</v>
+        <v>18.4486136099298</v>
       </c>
       <c r="O3">
-        <v>14.30399758376641</v>
+        <v>22.58257689046113</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.71601877269257</v>
+        <v>9.591952763366249</v>
       </c>
       <c r="C4">
-        <v>6.526910926969869</v>
+        <v>4.6310937063305</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.57106899874085</v>
+        <v>22.38902302831827</v>
       </c>
       <c r="F4">
-        <v>32.73704667736303</v>
+        <v>40.89597975989211</v>
       </c>
       <c r="G4">
-        <v>2.09872838893452</v>
+        <v>3.643396811284474</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.706637328827236</v>
+        <v>8.171266979730721</v>
       </c>
       <c r="K4">
-        <v>10.46162898952617</v>
+        <v>9.033201312167343</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.35944347340074</v>
+        <v>18.48658814554508</v>
       </c>
       <c r="O4">
-        <v>14.36801119668144</v>
+        <v>22.64284272057421</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.4770541433453</v>
+        <v>9.521436653549014</v>
       </c>
       <c r="C5">
-        <v>6.432986451147175</v>
+        <v>4.587610891009387</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.18600250022257</v>
+        <v>22.31073739132879</v>
       </c>
       <c r="F5">
-        <v>32.34601018990577</v>
+        <v>40.85778761579161</v>
       </c>
       <c r="G5">
-        <v>2.099930490581714</v>
+        <v>3.643854219113667</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.720671712544759</v>
+        <v>8.177512672188167</v>
       </c>
       <c r="K5">
-        <v>10.27486232943278</v>
+        <v>8.985747749734212</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.40989854979825</v>
+        <v>18.50250487700847</v>
       </c>
       <c r="O5">
-        <v>14.39736096314849</v>
+        <v>22.668604437214</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.43689560965447</v>
+        <v>9.509702914066024</v>
       </c>
       <c r="C6">
-        <v>6.417251648664273</v>
+        <v>4.580337787704339</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.1215737562379</v>
+        <v>22.2977972273742</v>
       </c>
       <c r="F6">
-        <v>32.28105222525623</v>
+        <v>40.85161641799696</v>
       </c>
       <c r="G6">
-        <v>2.100131391962457</v>
+        <v>3.643930996505582</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.72302614309278</v>
+        <v>8.178562569300365</v>
       </c>
       <c r="K6">
-        <v>10.24351193362589</v>
+        <v>8.977865567156261</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.41832104161298</v>
+        <v>18.50517455933235</v>
       </c>
       <c r="O6">
-        <v>14.40242680289679</v>
+        <v>22.67295473185894</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.71282807607221</v>
+        <v>9.59100348052327</v>
       </c>
       <c r="C7">
-        <v>6.525653571675594</v>
+        <v>4.630510851396123</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.56590883616794</v>
+        <v>22.38796333868552</v>
       </c>
       <c r="F7">
-        <v>32.73177518166599</v>
+        <v>40.89545326883828</v>
       </c>
       <c r="G7">
-        <v>2.098744514534691</v>
+        <v>3.643402924755704</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.70682498817953</v>
+        <v>8.171350353197843</v>
       </c>
       <c r="K7">
-        <v>10.45913287276134</v>
+        <v>9.032561550088449</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.36012095908597</v>
+        <v>18.48680101363576</v>
       </c>
       <c r="O7">
-        <v>14.36839402035982</v>
+        <v>22.6431852848312</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.86115078595216</v>
+        <v>9.945412622426238</v>
       </c>
       <c r="C8">
-        <v>6.983410838581348</v>
+        <v>4.843936848807921</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.45355281997384</v>
+        <v>22.79377835391276</v>
       </c>
       <c r="F8">
-        <v>34.71300160346863</v>
+        <v>41.11349468493228</v>
       </c>
       <c r="G8">
-        <v>2.092808752045112</v>
+        <v>3.641192303781259</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.638851225907357</v>
+        <v>8.141382657795114</v>
       </c>
       <c r="K8">
-        <v>11.36123565439991</v>
+        <v>9.273100634277238</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.1096302074155</v>
+        <v>18.40959780257157</v>
       </c>
       <c r="O8">
-        <v>14.24731493993337</v>
+        <v>22.52238623898458</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.86674032132908</v>
+        <v>10.61788843526886</v>
       </c>
       <c r="C9">
-        <v>7.803910664010683</v>
+        <v>5.231290878589669</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.87883990234091</v>
+        <v>23.61170934728518</v>
       </c>
       <c r="F9">
-        <v>38.53957380285309</v>
+        <v>41.62730994411086</v>
       </c>
       <c r="G9">
-        <v>2.08179203500978</v>
+        <v>3.637284391108655</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.518487152444401</v>
+        <v>8.089266034455502</v>
       </c>
       <c r="K9">
-        <v>12.95141047258885</v>
+        <v>9.737703102741431</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.63986141063363</v>
+        <v>18.27204411967526</v>
       </c>
       <c r="O9">
-        <v>14.12590253443808</v>
+        <v>22.32364118245237</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.19303706804013</v>
+        <v>11.09271853324387</v>
       </c>
       <c r="C10">
-        <v>8.357910538789653</v>
+        <v>5.495012919508892</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.2208641121271</v>
+        <v>24.22038687174014</v>
       </c>
       <c r="F10">
-        <v>41.2946433290852</v>
+        <v>42.05509015253107</v>
       </c>
       <c r="G10">
-        <v>2.074038406032398</v>
+        <v>3.634670857609474</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.438267129351671</v>
+        <v>8.055002814963515</v>
       </c>
       <c r="K10">
-        <v>14.01063919201172</v>
+        <v>10.0712333986749</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.30647110539279</v>
+        <v>18.17933834480635</v>
       </c>
       <c r="O10">
-        <v>14.11840538069919</v>
+        <v>22.20102302258388</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.76512332626942</v>
+        <v>11.303533413796</v>
       </c>
       <c r="C11">
-        <v>8.599145897748901</v>
+        <v>5.610135367457848</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.26187324820637</v>
+        <v>24.49776608140973</v>
       </c>
       <c r="F11">
-        <v>42.53294886178267</v>
+        <v>42.26005171249606</v>
       </c>
       <c r="G11">
-        <v>2.0705755401738</v>
+        <v>3.633537242035925</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.403645236957556</v>
+        <v>8.040284297860442</v>
       </c>
       <c r="K11">
-        <v>14.46901193340591</v>
+        <v>10.22058550491946</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.15704788614573</v>
+        <v>18.13896058807044</v>
       </c>
       <c r="O11">
-        <v>14.13517712915605</v>
+        <v>22.15035352953944</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.97732216489477</v>
+        <v>11.3825423333211</v>
       </c>
       <c r="C12">
-        <v>8.68893862210529</v>
+        <v>5.65300993015058</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>30.66980782886866</v>
+        <v>24.60277433518296</v>
       </c>
       <c r="F12">
-        <v>42.99956890432671</v>
+        <v>42.3391028046981</v>
       </c>
       <c r="G12">
-        <v>2.069272650081867</v>
+        <v>3.633115877969343</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.390812841210304</v>
+        <v>8.034835176281399</v>
       </c>
       <c r="K12">
-        <v>14.63923429336141</v>
+        <v>10.27674739216792</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.10076068957664</v>
+        <v>18.12392733494878</v>
       </c>
       <c r="O12">
-        <v>14.14463536997206</v>
+        <v>22.13190379531052</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.93181779166617</v>
+        <v>11.36556404864143</v>
       </c>
       <c r="C13">
-        <v>8.669669485160107</v>
+        <v>5.643808474141351</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>30.58225068500328</v>
+        <v>24.5801617849338</v>
       </c>
       <c r="F13">
-        <v>42.89917771986468</v>
+        <v>42.32201472667158</v>
       </c>
       <c r="G13">
-        <v>2.069552889994652</v>
+        <v>3.633206275020091</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.393563995624799</v>
+        <v>8.036003212237254</v>
       </c>
       <c r="K13">
-        <v>14.60272258023586</v>
+        <v>10.26467028486185</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.11287039651878</v>
+        <v>18.12715360591833</v>
       </c>
       <c r="O13">
-        <v>14.14245689243235</v>
+        <v>22.13584442058374</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.78266965937451</v>
+        <v>11.31005041205264</v>
       </c>
       <c r="C14">
-        <v>8.606564439662412</v>
+        <v>5.613677230668901</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.2955691906567</v>
+        <v>24.50640632002425</v>
       </c>
       <c r="F14">
-        <v>42.57138462473787</v>
+        <v>42.26652681847316</v>
       </c>
       <c r="G14">
-        <v>2.07046818677473</v>
+        <v>3.633502417827168</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.402583875981881</v>
+        <v>8.039833502965912</v>
       </c>
       <c r="K14">
-        <v>14.48308328546024</v>
+        <v>10.22521417752505</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.15241132130057</v>
+        <v>18.13771865050685</v>
       </c>
       <c r="O14">
-        <v>14.13589181120638</v>
+        <v>22.14882085774154</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.69073591088215</v>
+        <v>11.2759375071612</v>
       </c>
       <c r="C15">
-        <v>8.567707792240945</v>
+        <v>5.595126602423923</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>30.11909053831223</v>
+        <v>24.46122225290076</v>
       </c>
       <c r="F15">
-        <v>42.37029940044219</v>
+        <v>42.23272432316526</v>
       </c>
       <c r="G15">
-        <v>2.071029903762395</v>
+        <v>3.633684842993081</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.408145332936797</v>
+        <v>8.04219586476402</v>
       </c>
       <c r="K15">
-        <v>14.40936482381794</v>
+        <v>10.20099326881926</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.17666906100976</v>
+        <v>18.14422347158595</v>
       </c>
       <c r="O15">
-        <v>14.13228127020293</v>
+        <v>22.1568654558661</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.15502574320549</v>
+        <v>11.07883022584734</v>
       </c>
       <c r="C16">
-        <v>8.341927486759579</v>
+        <v>5.48738985194273</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29.15296029151153</v>
+        <v>24.20226075738546</v>
       </c>
       <c r="F16">
-        <v>41.2134015725747</v>
+        <v>42.04189944300222</v>
       </c>
       <c r="G16">
-        <v>2.074265937273279</v>
+        <v>3.634746051312441</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.4405681474713</v>
+        <v>8.055982140418974</v>
       </c>
       <c r="K16">
-        <v>13.98021281560578</v>
+        <v>10.06142050983293</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.31627913032658</v>
+        <v>18.18201314055429</v>
       </c>
       <c r="O16">
-        <v>14.11773289559034</v>
+        <v>22.20443746792476</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.81841942406312</v>
+        <v>10.95652617060905</v>
       </c>
       <c r="C17">
-        <v>8.200649561569708</v>
+        <v>5.420038373130718</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.55361906355895</v>
+        <v>24.04344984687016</v>
       </c>
       <c r="F17">
-        <v>40.49971772395596</v>
+        <v>41.9274514729055</v>
       </c>
       <c r="G17">
-        <v>2.076267040302993</v>
+        <v>3.635411202035618</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.460943724522286</v>
+        <v>8.064661633215312</v>
       </c>
       <c r="K17">
-        <v>13.71094294912383</v>
+        <v>9.975150475321955</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.40248068198034</v>
+        <v>18.2056547017208</v>
       </c>
       <c r="O17">
-        <v>14.11412218432938</v>
+        <v>22.23493223193619</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.62186716127472</v>
+        <v>10.88569591087986</v>
       </c>
       <c r="C18">
-        <v>8.11837537004439</v>
+        <v>5.380844625950652</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>28.20530905802437</v>
+        <v>23.95215782492309</v>
       </c>
       <c r="F18">
-        <v>40.08781876198564</v>
+        <v>41.8626027655493</v>
       </c>
       <c r="G18">
-        <v>2.0774241267895</v>
+        <v>3.635798986015397</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.472838664078415</v>
+        <v>8.06973556834196</v>
       </c>
       <c r="K18">
-        <v>13.5538546030944</v>
+        <v>9.925309904923015</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.45227377004796</v>
+        <v>18.21942168195365</v>
       </c>
       <c r="O18">
-        <v>14.11393261228469</v>
+        <v>22.25295283169483</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.55481043356176</v>
+        <v>10.86163327598192</v>
       </c>
       <c r="C19">
-        <v>8.090344778381635</v>
+        <v>5.367496905579983</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>28.08676111566372</v>
+        <v>23.92125988775834</v>
       </c>
       <c r="F19">
-        <v>39.94812078497953</v>
+        <v>41.84081578724827</v>
       </c>
       <c r="G19">
-        <v>2.077816969039755</v>
+        <v>3.635931178507505</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.476895960676229</v>
+        <v>8.071467562084228</v>
       </c>
       <c r="K19">
-        <v>13.50028680398268</v>
+        <v>9.908398582706756</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.46917006573365</v>
+        <v>18.2241120019667</v>
       </c>
       <c r="O19">
-        <v>14.11418634953726</v>
+        <v>22.25913679028056</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.85455616125722</v>
+        <v>10.96959633308214</v>
       </c>
       <c r="C20">
-        <v>8.215793948275504</v>
+        <v>5.427255315155139</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>28.61779082965215</v>
+        <v>24.06035090601105</v>
       </c>
       <c r="F20">
-        <v>40.57583746737743</v>
+        <v>41.93953373690593</v>
       </c>
       <c r="G20">
-        <v>2.07605339340443</v>
+        <v>3.635339857001736</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.458756489172941</v>
+        <v>8.063729231223371</v>
       </c>
       <c r="K20">
-        <v>13.73983592173424</v>
+        <v>9.984357267963397</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.39328259565453</v>
+        <v>18.20312053663803</v>
       </c>
       <c r="O20">
-        <v>14.11430975358883</v>
+        <v>22.23163622848065</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.82659805819316</v>
+        <v>11.32637899580765</v>
       </c>
       <c r="C21">
-        <v>8.625142226872903</v>
+        <v>5.622547211119524</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.37995716407264</v>
+        <v>24.52807166112881</v>
       </c>
       <c r="F21">
-        <v>42.66772859684932</v>
+        <v>42.28278641384172</v>
       </c>
       <c r="G21">
-        <v>2.070199120228994</v>
+        <v>3.633415219103366</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.399926889538811</v>
+        <v>8.038705078679959</v>
       </c>
       <c r="K21">
-        <v>14.51831504640159</v>
+        <v>10.23681450826325</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.14078936724349</v>
+        <v>18.13460847681377</v>
       </c>
       <c r="O21">
-        <v>14.13773416406393</v>
+        <v>22.1449893197366</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.43604502450498</v>
+        <v>11.55473489916045</v>
       </c>
       <c r="C22">
-        <v>8.88359578513931</v>
+        <v>5.745977516942673</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.55487776822643</v>
+        <v>24.83353965447197</v>
       </c>
       <c r="F22">
-        <v>44.0214818188858</v>
+        <v>42.51546868992169</v>
       </c>
       <c r="G22">
-        <v>2.066421675885228</v>
+        <v>3.632203453354985</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.363104927993717</v>
+        <v>8.023075644806465</v>
       </c>
       <c r="K22">
-        <v>15.00756475663063</v>
+        <v>10.39948800694405</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.97748366754695</v>
+        <v>18.09132893856737</v>
       </c>
       <c r="O22">
-        <v>14.17125052532357</v>
+        <v>22.09266177319312</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.11311653273144</v>
+        <v>11.4333216133752</v>
       </c>
       <c r="C23">
-        <v>8.746485723060053</v>
+        <v>5.680491966308565</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>30.93135286904526</v>
+        <v>24.6705574313572</v>
       </c>
       <c r="F23">
-        <v>43.30021497888505</v>
+        <v>42.39053644628014</v>
       </c>
       <c r="G23">
-        <v>2.06843360538477</v>
+        <v>3.632845990741219</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.382605287274063</v>
+        <v>8.031351118683975</v>
       </c>
       <c r="K23">
-        <v>14.74822098728227</v>
+        <v>10.3128953112023</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.06449505818127</v>
+        <v>18.11429143163932</v>
       </c>
       <c r="O23">
-        <v>14.15162805303632</v>
+        <v>22.12019546370474</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.83822819310901</v>
+        <v>10.96368891406691</v>
       </c>
       <c r="C24">
-        <v>8.208950445996889</v>
+        <v>5.423994005615303</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.58879042816974</v>
+        <v>24.05270989686706</v>
       </c>
       <c r="F24">
-        <v>40.54142868021554</v>
+        <v>41.93406838529158</v>
       </c>
       <c r="G24">
-        <v>2.076149962468469</v>
+        <v>3.635372095329584</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.45974477595905</v>
+        <v>8.064150508547522</v>
       </c>
       <c r="K24">
-        <v>13.72678051683234</v>
+        <v>9.980195629097805</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.39744031762121</v>
+        <v>18.20426568703999</v>
       </c>
       <c r="O24">
-        <v>14.11421909371083</v>
+        <v>22.23312482938026</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.35024861166811</v>
+        <v>10.43897364014803</v>
       </c>
       <c r="C25">
-        <v>7.590424578251362</v>
+        <v>5.130045636430437</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.98263542227492</v>
+        <v>23.38866325819232</v>
       </c>
       <c r="F25">
-        <v>37.51306775909752</v>
+        <v>41.47929874716537</v>
       </c>
       <c r="G25">
-        <v>2.084709559003887</v>
+        <v>3.638296147268955</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.549633645916161</v>
+        <v>8.1026558679931</v>
       </c>
       <c r="K25">
-        <v>12.5404153164295</v>
+        <v>9.613145911234886</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.76478367611469</v>
+        <v>18.30778286002454</v>
       </c>
       <c r="O25">
-        <v>14.14521184867268</v>
+        <v>22.37330839022836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_81/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.04013707806289</v>
+        <v>13.15552046518203</v>
       </c>
       <c r="C2">
-        <v>4.899733097183971</v>
+        <v>7.10230714442857</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.90544527475214</v>
+        <v>23.94666475743341</v>
       </c>
       <c r="F2">
-        <v>41.17848498620837</v>
+        <v>35.24678283111641</v>
       </c>
       <c r="G2">
-        <v>3.640622344164938</v>
+        <v>2.0912440228722</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.133713967735492</v>
+        <v>4.621298544239383</v>
       </c>
       <c r="K2">
-        <v>9.337930198256901</v>
+        <v>11.59358269878868</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.38961945010614</v>
+        <v>12.04325791102468</v>
       </c>
       <c r="O2">
-        <v>22.49223145042268</v>
+        <v>14.22196417375149</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.763860862809988</v>
+        <v>12.28302118908609</v>
       </c>
       <c r="C3">
-        <v>4.735599477558031</v>
+        <v>6.751682146509265</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.58342008695665</v>
+        <v>22.49576549823349</v>
       </c>
       <c r="F3">
-        <v>40.99659910725056</v>
+        <v>33.69486768230846</v>
       </c>
       <c r="G3">
-        <v>3.64230783541312</v>
+        <v>2.095830413033829</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.156460165211362</v>
+        <v>4.673178403188798</v>
       </c>
       <c r="K3">
-        <v>9.149467944207627</v>
+        <v>10.90616335266369</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.4486136099298</v>
+        <v>12.23741432557247</v>
       </c>
       <c r="O3">
-        <v>22.58257689046113</v>
+        <v>14.3039975837664</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.591952763366249</v>
+        <v>11.71601877269256</v>
       </c>
       <c r="C4">
-        <v>4.6310937063305</v>
+        <v>6.526910926969956</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.38902302831827</v>
+        <v>21.57106899874083</v>
       </c>
       <c r="F4">
-        <v>40.89597975989211</v>
+        <v>32.73704667736295</v>
       </c>
       <c r="G4">
-        <v>3.643396811284474</v>
+        <v>2.098728388934788</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.171266979730721</v>
+        <v>4.706637328827267</v>
       </c>
       <c r="K4">
-        <v>9.033201312167343</v>
+        <v>10.46162898952621</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.48658814554508</v>
+        <v>12.35944347340071</v>
       </c>
       <c r="O4">
-        <v>22.64284272057421</v>
+        <v>14.36801119668137</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.521436653549014</v>
+        <v>11.47705414334535</v>
       </c>
       <c r="C5">
-        <v>4.587610891009387</v>
+        <v>6.432986451147235</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.31073739132879</v>
+        <v>21.18600250022259</v>
       </c>
       <c r="F5">
-        <v>40.85778761579161</v>
+        <v>32.34601018990575</v>
       </c>
       <c r="G5">
-        <v>3.643854219113667</v>
+        <v>2.099930490581713</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.177512672188167</v>
+        <v>4.720671712544729</v>
       </c>
       <c r="K5">
-        <v>8.985747749734212</v>
+        <v>10.27486232943285</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.50250487700847</v>
+        <v>12.40989854979821</v>
       </c>
       <c r="O5">
-        <v>22.668604437214</v>
+        <v>14.39736096314835</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.509702914066024</v>
+        <v>11.43689560965455</v>
       </c>
       <c r="C6">
-        <v>4.580337787704339</v>
+        <v>6.417251648663974</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.2977972273742</v>
+        <v>21.12157375623797</v>
       </c>
       <c r="F6">
-        <v>40.85161641799696</v>
+        <v>32.28105222525633</v>
       </c>
       <c r="G6">
-        <v>3.643930996505582</v>
+        <v>2.10013139196219</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.178562569300365</v>
+        <v>4.723026143092813</v>
       </c>
       <c r="K6">
-        <v>8.977865567156261</v>
+        <v>10.24351193362589</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.50517455933235</v>
+        <v>12.41832104161295</v>
       </c>
       <c r="O6">
-        <v>22.67295473185894</v>
+        <v>14.40242680289673</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.59100348052327</v>
+        <v>11.71282807607222</v>
       </c>
       <c r="C7">
-        <v>4.630510851396123</v>
+        <v>6.525653571675644</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.38796333868552</v>
+        <v>21.56590883616796</v>
       </c>
       <c r="F7">
-        <v>40.89545326883828</v>
+        <v>32.73177518166599</v>
       </c>
       <c r="G7">
-        <v>3.643402924755704</v>
+        <v>2.098744514534825</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.171350353197843</v>
+        <v>4.706824988179501</v>
       </c>
       <c r="K7">
-        <v>9.032561550088449</v>
+        <v>10.45913287276135</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.48680101363576</v>
+        <v>12.36012095908593</v>
       </c>
       <c r="O7">
-        <v>22.6431852848312</v>
+        <v>14.36839402035971</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.945412622426238</v>
+        <v>12.86115078595219</v>
       </c>
       <c r="C8">
-        <v>4.843936848807921</v>
+        <v>6.983410838581526</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.79377835391276</v>
+        <v>23.45355281997384</v>
       </c>
       <c r="F8">
-        <v>41.11349468493228</v>
+        <v>34.71300160346851</v>
       </c>
       <c r="G8">
-        <v>3.641192303781259</v>
+        <v>2.092808752045245</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.141382657795114</v>
+        <v>4.638851225907296</v>
       </c>
       <c r="K8">
-        <v>9.273100634277238</v>
+        <v>11.36123565439998</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.40959780257157</v>
+        <v>12.10963020741544</v>
       </c>
       <c r="O8">
-        <v>22.52238623898458</v>
+        <v>14.24731493993318</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.61788843526886</v>
+        <v>14.86674032132908</v>
       </c>
       <c r="C9">
-        <v>5.231290878589669</v>
+        <v>7.803910664010696</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.61170934728518</v>
+        <v>26.8788399023409</v>
       </c>
       <c r="F9">
-        <v>41.62730994411086</v>
+        <v>38.53957380285312</v>
       </c>
       <c r="G9">
-        <v>3.637284391108655</v>
+        <v>2.081792035009645</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.089266034455502</v>
+        <v>4.518487152444401</v>
       </c>
       <c r="K9">
-        <v>9.737703102741431</v>
+        <v>12.95141047258884</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.27204411967526</v>
+        <v>11.63986141063367</v>
       </c>
       <c r="O9">
-        <v>22.32364118245237</v>
+        <v>14.12590253443809</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.09271853324387</v>
+        <v>16.19303706804013</v>
       </c>
       <c r="C10">
-        <v>5.495012919508892</v>
+        <v>8.357910538789813</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.22038687174014</v>
+        <v>29.22086411212714</v>
       </c>
       <c r="F10">
-        <v>42.05509015253107</v>
+        <v>41.2946433290852</v>
       </c>
       <c r="G10">
-        <v>3.634670857609474</v>
+        <v>2.074038406032397</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.055002814963515</v>
+        <v>4.438267129351612</v>
       </c>
       <c r="K10">
-        <v>10.0712333986749</v>
+        <v>14.01063919201175</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.17933834480635</v>
+        <v>11.30647110539279</v>
       </c>
       <c r="O10">
-        <v>22.20102302258388</v>
+        <v>14.11840538069914</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.303533413796</v>
+        <v>16.76512332626934</v>
       </c>
       <c r="C11">
-        <v>5.610135367457848</v>
+        <v>8.599145897749063</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.49776608140973</v>
+        <v>30.26187324820629</v>
       </c>
       <c r="F11">
-        <v>42.26005171249606</v>
+        <v>42.53294886178261</v>
       </c>
       <c r="G11">
-        <v>3.633537242035925</v>
+        <v>2.070575540173935</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.040284297860442</v>
+        <v>4.403645236957553</v>
       </c>
       <c r="K11">
-        <v>10.22058550491946</v>
+        <v>14.46901193340591</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.13896058807044</v>
+        <v>11.15704788614567</v>
       </c>
       <c r="O11">
-        <v>22.15035352953944</v>
+        <v>14.13517712915598</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.3825423333211</v>
+        <v>16.97732216489482</v>
       </c>
       <c r="C12">
-        <v>5.65300993015058</v>
+        <v>8.688938622105375</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>24.60277433518296</v>
+        <v>30.66980782886862</v>
       </c>
       <c r="F12">
-        <v>42.3391028046981</v>
+        <v>42.99956890432669</v>
       </c>
       <c r="G12">
-        <v>3.633115877969343</v>
+        <v>2.069272650081998</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.034835176281399</v>
+        <v>4.390812841210299</v>
       </c>
       <c r="K12">
-        <v>10.27674739216792</v>
+        <v>14.63923429336146</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.12392733494878</v>
+        <v>11.10076068957661</v>
       </c>
       <c r="O12">
-        <v>22.13190379531052</v>
+        <v>14.14463536997195</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.36556404864143</v>
+        <v>16.93181779166623</v>
       </c>
       <c r="C13">
-        <v>5.643808474141351</v>
+        <v>8.669669485160124</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>24.5801617849338</v>
+        <v>30.58225068500322</v>
       </c>
       <c r="F13">
-        <v>42.32201472667158</v>
+        <v>42.89917771986469</v>
       </c>
       <c r="G13">
-        <v>3.633206275020091</v>
+        <v>2.069552889994787</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.036003212237254</v>
+        <v>4.393563995624745</v>
       </c>
       <c r="K13">
-        <v>10.26467028486185</v>
+        <v>14.6027225802359</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.12715360591833</v>
+        <v>11.11287039651871</v>
       </c>
       <c r="O13">
-        <v>22.13584442058374</v>
+        <v>14.14245689243223</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.31005041205264</v>
+        <v>16.78266965937445</v>
       </c>
       <c r="C14">
-        <v>5.613677230668901</v>
+        <v>8.606564439662442</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>24.50640632002425</v>
+        <v>30.29556919065671</v>
       </c>
       <c r="F14">
-        <v>42.26652681847316</v>
+        <v>42.57138462473788</v>
       </c>
       <c r="G14">
-        <v>3.633502417827168</v>
+        <v>2.070468186774728</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.039833502965912</v>
+        <v>4.402583875981826</v>
       </c>
       <c r="K14">
-        <v>10.22521417752505</v>
+        <v>14.48308328546021</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.13771865050685</v>
+        <v>11.15241132130053</v>
       </c>
       <c r="O14">
-        <v>22.14882085774154</v>
+        <v>14.13589181120636</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.2759375071612</v>
+        <v>16.69073591088209</v>
       </c>
       <c r="C15">
-        <v>5.595126602423923</v>
+        <v>8.567707792240945</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>24.46122225290076</v>
+        <v>30.11909053831222</v>
       </c>
       <c r="F15">
-        <v>42.23272432316526</v>
+        <v>42.37029940044216</v>
       </c>
       <c r="G15">
-        <v>3.633684842993081</v>
+        <v>2.071029903762397</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.04219586476402</v>
+        <v>4.408145332936857</v>
       </c>
       <c r="K15">
-        <v>10.20099326881926</v>
+        <v>14.40936482381791</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.14422347158595</v>
+        <v>11.1766690610098</v>
       </c>
       <c r="O15">
-        <v>22.1568654558661</v>
+        <v>14.13228127020297</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.07883022584734</v>
+        <v>16.15502574320552</v>
       </c>
       <c r="C16">
-        <v>5.48738985194273</v>
+        <v>8.341927486759564</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24.20226075738546</v>
+        <v>29.15296029151155</v>
       </c>
       <c r="F16">
-        <v>42.04189944300222</v>
+        <v>41.21340157257469</v>
       </c>
       <c r="G16">
-        <v>3.634746051312441</v>
+        <v>2.074265937273144</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.055982140418974</v>
+        <v>4.440568147471208</v>
       </c>
       <c r="K16">
-        <v>10.06142050983293</v>
+        <v>13.9802128156058</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.18201314055429</v>
+        <v>11.31627913032658</v>
       </c>
       <c r="O16">
-        <v>22.20443746792476</v>
+        <v>14.11773289559027</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.95652617060905</v>
+        <v>15.81841942406314</v>
       </c>
       <c r="C17">
-        <v>5.420038373130718</v>
+        <v>8.200649561569648</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>24.04344984687016</v>
+        <v>28.55361906355895</v>
       </c>
       <c r="F17">
-        <v>41.9274514729055</v>
+        <v>40.49971772395595</v>
       </c>
       <c r="G17">
-        <v>3.635411202035618</v>
+        <v>2.07626704030326</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.064661633215312</v>
+        <v>4.460943724522319</v>
       </c>
       <c r="K17">
-        <v>9.975150475321955</v>
+        <v>13.71094294912383</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.2056547017208</v>
+        <v>11.40248068198028</v>
       </c>
       <c r="O17">
-        <v>22.23493223193619</v>
+        <v>14.11412218432928</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.88569591087986</v>
+        <v>15.62186716127466</v>
       </c>
       <c r="C18">
-        <v>5.380844625950652</v>
+        <v>8.11837537004433</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.95215782492309</v>
+        <v>28.20530905802439</v>
       </c>
       <c r="F18">
-        <v>41.8626027655493</v>
+        <v>40.08781876198567</v>
       </c>
       <c r="G18">
-        <v>3.635798986015397</v>
+        <v>2.077424126789767</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.06973556834196</v>
+        <v>4.472838664078386</v>
       </c>
       <c r="K18">
-        <v>9.925309904923015</v>
+        <v>13.55385460309436</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.21942168195365</v>
+        <v>11.45227377004796</v>
       </c>
       <c r="O18">
-        <v>22.25295283169483</v>
+        <v>14.1139326122847</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.86163327598192</v>
+        <v>15.55481043356175</v>
       </c>
       <c r="C19">
-        <v>5.367496905579983</v>
+        <v>8.090344778381544</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.92125988775834</v>
+        <v>28.08676111566372</v>
       </c>
       <c r="F19">
-        <v>41.84081578724827</v>
+        <v>39.94812078497956</v>
       </c>
       <c r="G19">
-        <v>3.635931178507505</v>
+        <v>2.077816969039353</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.071467562084228</v>
+        <v>4.476895960676196</v>
       </c>
       <c r="K19">
-        <v>9.908398582706756</v>
+        <v>13.50028680398265</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.2241120019667</v>
+        <v>11.46917006573358</v>
       </c>
       <c r="O19">
-        <v>22.25913679028056</v>
+        <v>14.11418634953721</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.96959633308214</v>
+        <v>15.85455616125727</v>
       </c>
       <c r="C20">
-        <v>5.427255315155139</v>
+        <v>8.215793948275522</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>24.06035090601105</v>
+        <v>28.61779082965214</v>
       </c>
       <c r="F20">
-        <v>41.93953373690593</v>
+        <v>40.57583746737744</v>
       </c>
       <c r="G20">
-        <v>3.635339857001736</v>
+        <v>2.076053393404165</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.063729231223371</v>
+        <v>4.458756489172911</v>
       </c>
       <c r="K20">
-        <v>9.984357267963397</v>
+        <v>13.73983592173428</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.20312053663803</v>
+        <v>11.39328259565453</v>
       </c>
       <c r="O20">
-        <v>22.23163622848065</v>
+        <v>14.11430975358879</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.32637899580765</v>
+        <v>16.82659805819323</v>
       </c>
       <c r="C21">
-        <v>5.622547211119524</v>
+        <v>8.625142226872901</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>24.52807166112881</v>
+        <v>30.37995716407263</v>
       </c>
       <c r="F21">
-        <v>42.28278641384172</v>
+        <v>42.66772859684932</v>
       </c>
       <c r="G21">
-        <v>3.633415219103366</v>
+        <v>2.070199120229129</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.038705078679959</v>
+        <v>4.399926889538746</v>
       </c>
       <c r="K21">
-        <v>10.23681450826325</v>
+        <v>14.51831504640164</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.13460847681377</v>
+        <v>11.14078936724353</v>
       </c>
       <c r="O21">
-        <v>22.1449893197366</v>
+        <v>14.13773416406387</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.55473489916045</v>
+        <v>17.43604502450496</v>
       </c>
       <c r="C22">
-        <v>5.745977516942673</v>
+        <v>8.883595785139411</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>24.83353965447197</v>
+        <v>31.55487776822641</v>
       </c>
       <c r="F22">
-        <v>42.51546868992169</v>
+        <v>44.0214818188858</v>
       </c>
       <c r="G22">
-        <v>3.632203453354985</v>
+        <v>2.066421675885227</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.023075644806465</v>
+        <v>4.363104927993747</v>
       </c>
       <c r="K22">
-        <v>10.39948800694405</v>
+        <v>15.00756475663061</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.09132893856737</v>
+        <v>10.97748366754698</v>
       </c>
       <c r="O22">
-        <v>22.09266177319312</v>
+        <v>14.17125052532358</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.4333216133752</v>
+        <v>17.11311653273144</v>
       </c>
       <c r="C23">
-        <v>5.680491966308565</v>
+        <v>8.746485723059983</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>24.6705574313572</v>
+        <v>30.93135286904531</v>
       </c>
       <c r="F23">
-        <v>42.39053644628014</v>
+        <v>43.30021497888509</v>
       </c>
       <c r="G23">
-        <v>3.632845990741219</v>
+        <v>2.068433605384636</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.031351118683975</v>
+        <v>4.382605287273996</v>
       </c>
       <c r="K23">
-        <v>10.3128953112023</v>
+        <v>14.74822098728227</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.11429143163932</v>
+        <v>11.0644950581812</v>
       </c>
       <c r="O23">
-        <v>22.12019546370474</v>
+        <v>14.15162805303626</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.96368891406691</v>
+        <v>15.83822819310894</v>
       </c>
       <c r="C24">
-        <v>5.423994005615303</v>
+        <v>8.208950445996978</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24.05270989686706</v>
+        <v>28.58879042816975</v>
       </c>
       <c r="F24">
-        <v>41.93406838529158</v>
+        <v>40.54142868021555</v>
       </c>
       <c r="G24">
-        <v>3.635372095329584</v>
+        <v>2.076149962468333</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.064150508547522</v>
+        <v>4.459744775959106</v>
       </c>
       <c r="K24">
-        <v>9.980195629097805</v>
+        <v>13.72678051683233</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.20426568703999</v>
+        <v>11.39744031762121</v>
       </c>
       <c r="O24">
-        <v>22.23312482938026</v>
+        <v>14.11421909371082</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.43897364014803</v>
+        <v>14.35024861166813</v>
       </c>
       <c r="C25">
-        <v>5.130045636430437</v>
+        <v>7.590424578251312</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.38866325819232</v>
+        <v>25.98263542227491</v>
       </c>
       <c r="F25">
-        <v>41.47929874716537</v>
+        <v>37.51306775909752</v>
       </c>
       <c r="G25">
-        <v>3.638296147268955</v>
+        <v>2.08470955900402</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.1026558679931</v>
+        <v>4.549633645916161</v>
       </c>
       <c r="K25">
-        <v>9.613145911234886</v>
+        <v>12.54041531642954</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.30778286002454</v>
+        <v>11.76478367611462</v>
       </c>
       <c r="O25">
-        <v>22.37330839022836</v>
+        <v>14.14521184867257</v>
       </c>
     </row>
   </sheetData>
